--- a/Car Evaluation /data/car.xlsx
+++ b/Car Evaluation /data/car.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">safety</t>
   </si>
   <si>
-    <t xml:space="preserve">Class </t>
+    <t xml:space="preserve">class</t>
   </si>
   <si>
     <t xml:space="preserve">vhigh</t>
@@ -100,6 +100,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK TC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -199,7 +200,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
